--- a/SourceCode/dams/templates/OPCR.xlsx
+++ b/SourceCode/dams/templates/OPCR.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19635" windowHeight="7605"/>
+    <workbookView windowWidth="19635" windowHeight="8055"/>
   </bookViews>
   <sheets>
     <sheet name="OPCR BLANK FORM" sheetId="1" r:id="rId1"/>
@@ -1391,9 +1391,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1592,9 +1590,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2117,8 +2113,8 @@
   <sheetPr/>
   <dimension ref="A1:Q56"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScalePageLayoutView="85" zoomScaleNormal="100" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6:O6"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScalePageLayoutView="85" zoomScaleNormal="100" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5714285714286" defaultRowHeight="15"/>
@@ -3055,6 +3051,7 @@
     <mergeCell ref="J7:O7"/>
     <mergeCell ref="J8:O8"/>
     <mergeCell ref="A10:O10"/>
+    <mergeCell ref="B12:O12"/>
     <mergeCell ref="B13:O13"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:E15"/>
@@ -3105,7 +3102,6 @@
     <mergeCell ref="P23:P24"/>
     <mergeCell ref="A23:B24"/>
     <mergeCell ref="G23:H24"/>
-    <mergeCell ref="B11:O12"/>
     <mergeCell ref="C23:E24"/>
     <mergeCell ref="I23:K24"/>
   </mergeCells>
